--- a/Rrt_Nawaqis_2025-06-03_00-00.xlsx
+++ b/Rrt_Nawaqis_2025-06-03_00-00.xlsx
@@ -41,7 +41,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 4 June, 2025 12:17 AM</t>
+    <t>Wednesday, 4 June, 2025 12:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
